--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4766,156 +4766,156 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G169" s="2" t="b">
@@ -9221,11 +9221,11 @@
         </is>
       </c>
       <c r="I169" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K169" s="2" t="b">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9273,11 +9273,11 @@
         </is>
       </c>
       <c r="I170" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G171" s="2" t="b">
@@ -9325,11 +9325,11 @@
         </is>
       </c>
       <c r="I171" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K171" s="2" t="b">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9377,11 +9377,11 @@
         </is>
       </c>
       <c r="I172" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K172" s="2" t="b">
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4766,156 +4766,156 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>8</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Locating</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>2</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G169" s="2" t="b">
@@ -9221,11 +9221,11 @@
         </is>
       </c>
       <c r="I169" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K169" s="2" t="b">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9273,11 +9273,11 @@
         </is>
       </c>
       <c r="I170" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G171" s="2" t="b">
@@ -9325,11 +9325,11 @@
         </is>
       </c>
       <c r="I171" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K171" s="2" t="b">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9377,11 +9377,11 @@
         </is>
       </c>
       <c r="I172" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K172" s="2" t="b">
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
